--- a/functional/automation_test_report.xlsx
+++ b/functional/automation_test_report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>3</col>
@@ -179,20 +179,20 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="2438280" y="162000"/>
           <a:ext cx="1904760" cy="952200"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -219,20 +219,20 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="2438280" y="1428840"/>
           <a:ext cx="1904760" cy="952200"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -254,14 +254,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -282,14 +282,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -310,13 +310,41 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -431,12 +459,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
@@ -641,50 +669,99 @@
       </c>
     </row>
     <row r="6" ht="100" customHeight="1" s="3">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>cart page functionality</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Need to add,decrease and remove the products</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">As expected </t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>Android</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>No issues</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="100" customHeight="1" s="3">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Register with valid credentials</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1. Open app
+ 2. Click on signup 3. Enter valid credentials</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>User should be Registered in successfully</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Registration failed due to invalid credentials</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Error encountered</t>
         </is>
       </c>
     </row>
@@ -700,6 +777,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>